--- a/static/download/2023/RP3_APT_CDO_2023_Jan_Apr.xlsx
+++ b/static/download/2023/RP3_APT_CDO_2023_Jan_Apr.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="338">
   <si>
     <t>Data source</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Share of arrivals applying CDO [% arrivals]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>JAN-APR</t>
@@ -1377,13 +1380,13 @@
         <v>4</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F3" s="11"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -1397,33 +1400,33 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="21">
         <v>27381.0</v>
@@ -1438,13 +1441,13 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="21">
         <v>24779.0</v>
@@ -1459,13 +1462,13 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="21">
         <v>1658.0</v>
@@ -1480,13 +1483,13 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="21">
         <v>342.0</v>
@@ -1501,13 +1504,13 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="21">
         <v>62011.0</v>
@@ -1522,13 +1525,13 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="21">
         <v>2153.0</v>
@@ -1543,13 +1546,13 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" s="21">
         <v>15731.0</v>
@@ -1564,13 +1567,13 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="21">
         <v>15640.0</v>
@@ -1585,13 +1588,13 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="21">
         <v>19902.0</v>
@@ -1606,13 +1609,13 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="21">
         <v>42994.0</v>
@@ -1627,13 +1630,13 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" s="21">
         <v>4845.0</v>
@@ -1648,13 +1651,13 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D17" s="21">
         <v>11788.0</v>
@@ -1669,13 +1672,13 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="21">
         <v>600.0</v>
@@ -1690,13 +1693,13 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" s="21">
         <v>10623.0</v>
@@ -1711,13 +1714,13 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" s="21">
         <v>6066.0</v>
@@ -1732,13 +1735,13 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" s="21">
         <v>2951.0</v>
@@ -1753,13 +1756,13 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="21">
         <v>5057.0</v>
@@ -1774,13 +1777,13 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>53</v>
       </c>
       <c r="D23" s="21">
         <v>41.0</v>
@@ -1795,13 +1798,13 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="21">
         <v>22439.0</v>
@@ -1816,13 +1819,13 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="21">
         <v>66143.0</v>
@@ -1837,13 +1840,13 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>62</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="D26" s="21">
         <v>1081.0</v>
@@ -1858,13 +1861,13 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="21">
         <v>847.0</v>
@@ -1879,13 +1882,13 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28" s="21">
         <v>3516.0</v>
@@ -1900,13 +1903,13 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29" s="21">
         <v>2875.0</v>
@@ -1921,13 +1924,13 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>70</v>
       </c>
       <c r="D30" s="21">
         <v>35379.0</v>
@@ -1942,13 +1945,13 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="21">
         <v>3112.0</v>
@@ -1963,13 +1966,13 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="21">
         <v>33559.0</v>
@@ -1984,13 +1987,13 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D33" s="21">
         <v>10715.0</v>
@@ -2005,13 +2008,13 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" s="21">
         <v>13696.0</v>
@@ -2026,13 +2029,13 @@
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="D35" s="21">
         <v>32406.0</v>
@@ -2047,13 +2050,13 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" s="21">
         <v>8432.0</v>
@@ -2068,13 +2071,13 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D37" s="21">
         <v>8705.0</v>
@@ -2089,13 +2092,13 @@
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D38" s="21">
         <v>533.0</v>
@@ -2110,13 +2113,13 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>92</v>
       </c>
       <c r="D39" s="21">
         <v>6144.0</v>
@@ -2131,13 +2134,13 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D40" s="21">
         <v>9346.0</v>
@@ -2152,13 +2155,13 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D41" s="21">
         <v>4748.0</v>
@@ -2173,13 +2176,13 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D42" s="21">
         <v>392.0</v>
@@ -2194,13 +2197,13 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43" s="21">
         <v>377.0</v>
@@ -2215,13 +2218,13 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D44" s="21">
         <v>2994.0</v>
@@ -2236,13 +2239,13 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D45" s="21">
         <v>3032.0</v>
@@ -2257,13 +2260,13 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D46" s="21">
         <v>41.0</v>
@@ -2278,13 +2281,13 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D47" s="21">
         <v>2321.0</v>
@@ -2299,13 +2302,13 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" s="21">
         <v>801.0</v>
@@ -2320,13 +2323,13 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D49" s="21">
         <v>227.0</v>
@@ -2341,13 +2344,13 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D50" s="21">
         <v>23689.0</v>
@@ -2362,13 +2365,13 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D51" s="21">
         <v>4041.0</v>
@@ -2383,13 +2386,13 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D52" s="21">
         <v>153.0</v>
@@ -2404,13 +2407,13 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" s="21">
         <v>28957.0</v>
@@ -2425,13 +2428,13 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D54" s="21">
         <v>10.0</v>
@@ -2446,13 +2449,13 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="20" t="s">
         <v>127</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="D55" s="21">
         <v>8392.0</v>
@@ -2467,13 +2470,13 @@
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
@@ -2481,13 +2484,13 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D57" s="21">
         <v>21411.0</v>
@@ -2502,13 +2505,13 @@
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>133</v>
       </c>
       <c r="D58" s="21">
         <v>13327.0</v>
@@ -2523,13 +2526,13 @@
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D59" s="21">
         <v>46192.0</v>
@@ -2544,13 +2547,13 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D60" s="21">
         <v>7215.0</v>
@@ -2565,13 +2568,13 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D61" s="21">
         <v>60376.0</v>
@@ -2586,13 +2589,13 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D62" s="21">
         <v>20501.0</v>
@@ -2607,13 +2610,13 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" s="21">
         <v>24349.0</v>
@@ -2628,13 +2631,13 @@
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D64" s="21">
         <v>192.0</v>
@@ -2649,13 +2652,13 @@
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D65" s="21">
         <v>221.0</v>
@@ -2670,13 +2673,13 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D66" s="21">
         <v>7882.0</v>
@@ -2691,13 +2694,13 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D67" s="21">
         <v>365.0</v>
@@ -2712,13 +2715,13 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D68" s="21">
         <v>454.0</v>
@@ -2733,13 +2736,13 @@
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C69" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D69" s="21">
         <v>615.0</v>
@@ -2754,13 +2757,13 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" s="21">
         <v>747.0</v>
@@ -2775,13 +2778,13 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D71" s="21">
         <v>11240.0</v>
@@ -2796,13 +2799,13 @@
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D72" s="21">
         <v>1064.0</v>
@@ -2817,13 +2820,13 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D73" s="21">
         <v>828.0</v>
@@ -2838,13 +2841,13 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D74" s="21">
         <v>1498.0</v>
@@ -2859,13 +2862,13 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D75" s="21">
         <v>415.0</v>
@@ -2880,13 +2883,13 @@
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D76" s="21">
         <v>280.0</v>
@@ -2901,13 +2904,13 @@
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D77" s="21">
         <v>431.0</v>
@@ -2922,13 +2925,13 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D78" s="21">
         <v>1852.0</v>
@@ -2943,13 +2946,13 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D79" s="21">
         <v>579.0</v>
@@ -2964,13 +2967,13 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D80" s="21">
         <v>757.0</v>
@@ -2985,13 +2988,13 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D81" s="21">
         <v>1831.0</v>
@@ -3006,13 +3009,13 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D82" s="21">
         <v>2303.0</v>
@@ -3027,13 +3030,13 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D83" s="21">
         <v>1120.0</v>
@@ -3048,13 +3051,13 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D84" s="21">
         <v>13530.0</v>
@@ -3069,13 +3072,13 @@
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D85" s="21">
         <v>586.0</v>
@@ -3090,13 +3093,13 @@
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D86" s="21">
         <v>1535.0</v>
@@ -3111,13 +3114,13 @@
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D87" s="21">
         <v>353.0</v>
@@ -3132,13 +3135,13 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D88" s="21">
         <v>1371.0</v>
@@ -3153,13 +3156,13 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D89" s="21">
         <v>1636.0</v>
@@ -3174,13 +3177,13 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D90" s="21">
         <v>125.0</v>
@@ -3195,13 +3198,13 @@
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D91" s="21">
         <v>440.0</v>
@@ -3216,13 +3219,13 @@
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D92" s="21">
         <v>466.0</v>
@@ -3237,13 +3240,13 @@
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D93" s="21">
         <v>14316.0</v>
@@ -3258,13 +3261,13 @@
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D94" s="21">
         <v>18123.0</v>
@@ -3279,13 +3282,13 @@
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D95" s="21">
         <v>1197.0</v>
@@ -3300,13 +3303,13 @@
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D96" s="21">
         <v>2966.0</v>
@@ -3321,13 +3324,13 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D97" s="21">
         <v>648.0</v>
@@ -3342,13 +3345,13 @@
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D98" s="21">
         <v>829.0</v>
@@ -3363,13 +3366,13 @@
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D99" s="21">
         <v>5022.0</v>
@@ -3384,13 +3387,13 @@
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D100" s="21">
         <v>423.0</v>
@@ -3405,13 +3408,13 @@
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D101" s="21">
         <v>503.0</v>
@@ -3426,13 +3429,13 @@
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D102" s="21">
         <v>510.0</v>
@@ -3447,13 +3450,13 @@
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D103" s="21">
         <v>8716.0</v>
@@ -3468,13 +3471,13 @@
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D104" s="21">
         <v>68323.0</v>
@@ -3489,13 +3492,13 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D105" s="21">
         <v>1530.0</v>
@@ -3510,13 +3513,13 @@
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D106" s="21">
         <v>30559.0</v>
@@ -3531,13 +3534,13 @@
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C107" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D107" s="21">
         <v>2207.0</v>
@@ -3552,13 +3555,13 @@
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D108" s="21">
         <v>1819.0</v>
@@ -3573,13 +3576,13 @@
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D109" s="21">
         <v>268.0</v>
@@ -3594,13 +3597,13 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C110" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D110" s="21">
         <v>270.0</v>
@@ -3615,13 +3618,13 @@
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D111" s="21">
         <v>518.0</v>
@@ -3636,13 +3639,13 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C112" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D112" s="21">
         <v>605.0</v>
@@ -3657,13 +3660,13 @@
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D113" s="21">
         <v>1897.0</v>
@@ -3678,13 +3681,13 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D114" s="21">
         <v>310.0</v>
@@ -3699,13 +3702,13 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C115" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D115" s="21">
         <v>6342.0</v>
@@ -3720,13 +3723,13 @@
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D116" s="21">
         <v>392.0</v>
@@ -3741,13 +3744,13 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C117" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D117" s="21">
         <v>9505.0</v>
@@ -3762,13 +3765,13 @@
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C118" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D118" s="21">
         <v>430.0</v>
@@ -3783,13 +3786,13 @@
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C119" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D119" s="21">
         <v>1269.0</v>
@@ -3804,13 +3807,13 @@
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D120" s="21">
         <v>951.0</v>
@@ -3825,13 +3828,13 @@
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C121" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D121" s="21">
         <v>645.0</v>
@@ -3846,13 +3849,13 @@
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D122" s="21">
         <v>29081.0</v>
@@ -3867,13 +3870,13 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D123" s="21">
         <v>15097.0</v>
@@ -3888,13 +3891,13 @@
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D124" s="21">
         <v>29409.0</v>
@@ -3909,13 +3912,13 @@
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" s="20" t="s">
         <v>272</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="D125" s="21">
         <v>15265.0</v>
@@ -3930,13 +3933,13 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D126" s="21">
         <v>16678.0</v>
@@ -3951,13 +3954,13 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D127" s="21">
         <v>11738.0</v>
@@ -3972,13 +3975,13 @@
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D128" s="21">
         <v>36238.0</v>
@@ -3993,13 +3996,13 @@
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D129" s="21">
         <v>14430.0</v>
@@ -4014,13 +4017,13 @@
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D130" s="21">
         <v>7700.0</v>
@@ -4035,13 +4038,13 @@
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D131" s="21">
         <v>1918.0</v>
@@ -4056,13 +4059,13 @@
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C132" s="20" t="s">
         <v>289</v>
-      </c>
-      <c r="B132" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>288</v>
       </c>
       <c r="D132" s="21">
         <v>3700.0</v>
@@ -4077,13 +4080,13 @@
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D133" s="21">
         <v>710.0</v>
@@ -4098,13 +4101,13 @@
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D134" s="21">
         <v>1266.0</v>
@@ -4119,13 +4122,13 @@
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D135" s="21">
         <v>4727.0</v>
@@ -4140,13 +4143,13 @@
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D136" s="21">
         <v>33036.0</v>
@@ -4161,13 +4164,13 @@
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D137" s="21">
         <v>358.0</v>
@@ -4182,13 +4185,13 @@
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>301</v>
       </c>
       <c r="D138" s="21">
         <v>768.0</v>
@@ -4203,13 +4206,13 @@
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D139" s="21"/>
       <c r="E139" s="21"/>
@@ -4217,13 +4220,13 @@
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D140" s="21">
         <v>7407.0</v>
@@ -4238,13 +4241,13 @@
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D141" s="21">
         <v>37.0</v>
@@ -4259,13 +4262,13 @@
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D142" s="21">
         <v>5019.0</v>
@@ -4280,13 +4283,13 @@
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D143" s="21">
         <v>3112.0</v>
@@ -4301,13 +4304,13 @@
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D144" s="21">
         <v>14769.0</v>
@@ -4322,13 +4325,13 @@
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D145" s="21">
         <v>348.0</v>
@@ -4343,13 +4346,13 @@
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D146" s="21">
         <v>34636.0</v>
@@ -4364,13 +4367,13 @@
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D147" s="21">
         <v>544.0</v>
@@ -4385,13 +4388,13 @@
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C148" s="20" t="s">
         <v>323</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>322</v>
       </c>
       <c r="D148" s="21">
         <v>16255.0</v>
@@ -4406,13 +4409,13 @@
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D149" s="21">
         <v>27111.0</v>
@@ -4427,13 +4430,13 @@
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C150" s="20" t="s">
         <v>328</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>327</v>
       </c>
       <c r="D150" s="21">
         <v>35190.0</v>
@@ -4475,16 +4478,16 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -4492,13 +4495,13 @@
         <v>44335.0</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="27">
         <v>2021.0</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -4506,11 +4509,11 @@
         <v>44351.0</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="29" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
